--- a/ESBAKERY-QA.01-프로젝트모니터링도구-은성제과제빵학원 프론트.xlsx
+++ b/ESBAKERY-QA.01-프로젝트모니터링도구-은성제과제빵학원 프론트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byg09\바탕 화면\정니\대외활동\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byg09\바탕 화면\정니\ESBAKERY-ACADEMY_FRONTEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,14 +19,14 @@
     <sheet name="도구" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능요구사항!$A$1:$I$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능요구사항!$A$1:$I$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -210,9 +210,6 @@
   <si>
     <t>추정치 총합</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작</t>
   </si>
   <si>
     <t>완료 총합(B)</t>
@@ -452,10 +449,6 @@
     <t>SFR-107</t>
   </si>
   <si>
-    <t>메인 화면 중앙 하단에 시험일정표, 자격증을 카드형태로 표시한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항과 개설예정 과정 메뉴 내용은 팝업창으로 띄어준다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -829,6 +822,35 @@
   </si>
   <si>
     <t>상담 예약 메뉴는 게시판 형태로 표시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자는 게시글을 작성, 삭제할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-803</t>
+  </si>
+  <si>
+    <t>SFR-905</t>
+  </si>
+  <si>
+    <t>SFR-1006</t>
+  </si>
+  <si>
+    <t>SFR-1104</t>
+  </si>
+  <si>
+    <t>구현</t>
+  </si>
+  <si>
+    <t>설계</t>
+  </si>
+  <si>
+    <t>메인 화면 중앙 하단에 자격증을 카드형태로 표시한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1097,12 +1119,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1112,11 +1128,343 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="149">
+  <dxfs count="193">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2404,6 +2752,12 @@
                 <c:pt idx="0">
                   <c:v>121</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2488,6 +2842,12 @@
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2571,6 +2931,12 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3671,11 +4037,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3725,7 +4091,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3734,16 +4100,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="4" t="b">
         <v>0</v>
@@ -3754,7 +4120,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6">
         <v>3</v>
@@ -3762,17 +4128,17 @@
       <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>48</v>
+      <c r="E3" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="4" t="b">
         <v>0</v>
@@ -3783,7 +4149,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
@@ -3792,16 +4158,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="4" t="b">
         <v>0</v>
@@ -3812,7 +4178,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -3821,16 +4187,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="4" t="b">
         <v>0</v>
@@ -3841,7 +4207,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -3850,16 +4216,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>0</v>
@@ -3867,10 +4233,10 @@
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
@@ -3879,16 +4245,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>0</v>
@@ -3896,10 +4262,10 @@
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -3908,16 +4274,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>0</v>
@@ -3925,10 +4291,10 @@
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C9" s="17">
         <v>5</v>
@@ -3937,25 +4303,25 @@
         <v>4</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="17">
         <v>2</v>
@@ -3964,25 +4330,25 @@
         <v>4</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -3990,17 +4356,17 @@
       <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>48</v>
+      <c r="E11" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" s="4" t="b">
         <v>0</v>
@@ -4008,10 +4374,10 @@
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -4020,16 +4386,16 @@
         <v>4</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="4" t="b">
         <v>0</v>
@@ -4037,10 +4403,10 @@
     </row>
     <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="17">
         <v>2</v>
@@ -4049,16 +4415,16 @@
         <v>4</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>0</v>
@@ -4066,10 +4432,10 @@
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="17">
         <v>2</v>
@@ -4078,25 +4444,25 @@
         <v>4</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="17">
         <v>3</v>
@@ -4105,16 +4471,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>0</v>
@@ -4122,10 +4488,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="17">
         <v>3</v>
@@ -4134,25 +4500,25 @@
         <v>4</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="17">
         <v>2</v>
@@ -4161,16 +4527,16 @@
         <v>4</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="4" t="b">
         <v>0</v>
@@ -4178,162 +4544,162 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C18" s="17">
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="17">
         <v>2</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="17">
         <v>2</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="17">
         <v>2</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="4" t="b">
         <v>0</v>
@@ -4341,28 +4707,28 @@
     </row>
     <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="4" t="b">
         <v>0</v>
@@ -4370,28 +4736,28 @@
     </row>
     <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="17">
         <v>2</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="4" t="b">
         <v>0</v>
@@ -4399,28 +4765,28 @@
     </row>
     <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="17">
         <v>2</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="4" t="b">
         <v>0</v>
@@ -4428,28 +4794,28 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="4" t="b">
         <v>0</v>
@@ -4457,28 +4823,28 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I28" s="4" t="b">
         <v>0</v>
@@ -4486,28 +4852,28 @@
     </row>
     <row r="29" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="17">
         <v>2</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="4" t="b">
         <v>0</v>
@@ -4515,82 +4881,82 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="17">
         <v>2</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I32" s="4" t="b">
         <v>0</v>
@@ -4598,28 +4964,28 @@
     </row>
     <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>127</v>
       </c>
       <c r="C33" s="17">
         <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I33" s="4" t="b">
         <v>0</v>
@@ -4627,28 +4993,28 @@
     </row>
     <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C34" s="17">
         <v>2</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34" s="4" t="b">
         <v>0</v>
@@ -4656,28 +5022,28 @@
     </row>
     <row r="35" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="C35" s="17">
         <v>2</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I35" s="4" t="b">
         <v>0</v>
@@ -4685,28 +5051,28 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I36" s="4" t="b">
         <v>0</v>
@@ -4714,28 +5080,28 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" s="6">
         <v>2</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I37" s="4" t="b">
         <v>0</v>
@@ -4743,28 +5109,28 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="6">
         <v>3</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I38" s="4" t="b">
         <v>0</v>
@@ -4772,28 +5138,28 @@
     </row>
     <row r="39" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I39" s="4" t="b">
         <v>0</v>
@@ -4801,82 +5167,82 @@
     </row>
     <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>48</v>
+        <v>111</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C42" s="17">
         <v>2</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="4" t="b">
         <v>0</v>
@@ -4884,915 +5250,1077 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" s="6">
         <v>3</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="C44" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C45" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C46" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="C47" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C48" s="17">
         <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C49" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C50" s="17">
         <v>2</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="C51" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C52" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="C53" s="17">
         <v>2</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="17">
+        <v>2</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="17">
-        <v>3</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="C55" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C56" s="17">
         <v>2</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C57" s="17">
+        <v>3</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="17">
         <v>2</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="17">
-        <v>0</v>
-      </c>
       <c r="D58" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C59" s="17">
         <v>2</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C60" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C61" s="17">
         <v>2</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C62" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C63" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C64" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C65" s="17">
         <v>2</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C66" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C67" s="17">
         <v>2</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E67" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="17">
+        <v>0</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="17">
+        <v>2</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="17">
+        <v>2</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="17">
+        <v>2</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="17">
+        <v>0</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="17">
+        <v>2</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="17">
+        <v>2</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G74" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="17"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="17"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="17"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="17"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="17"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="23">
+        <f>SUM(C2:C80)</f>
+        <v>133</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" s="17">
-        <v>2</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="23">
-        <f>SUM(C2:C74)</f>
-        <v>121</v>
-      </c>
-      <c r="D75" s="18" t="s">
+      <c r="E81" s="18">
+        <f>SUMIF(E2:E80, "완료", C2:C80)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E75" s="18">
-        <f>SUMIF(E2:E74, "완료", C2:C74)</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="19" t="s">
+      <c r="G81" s="20">
+        <f>SUMIF(G2:G80,TRUE,C2:C80)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="21">
+        <f>SUMIFS(C2:C80, E2:E80, "완료", G2:G80, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="23">
+        <f>COUNTA(A2:A80)-COUNTIF(C2:C80, 0)-COUNTIF(C2:C80, -1)</f>
+        <v>60</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G75" s="20">
-        <f>SUMIF(G2:G74,TRUE,C2:C74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="14"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="21">
-        <f>SUMIFS(C2:C74, E2:E74, "완료", G2:G74, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="23">
-        <f>COUNTA(A2:A74)-COUNTIF(C2:C74, 0)-COUNTIF(C2:C74, -1)</f>
+      <c r="G83" s="23">
+        <f>G81+E81-E82</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G77" s="23">
-        <f>G75+E75-E76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="15" t="s">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="15" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="15" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="27"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="27"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="25" t="s">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I47"/>
+  <autoFilter ref="A1:I49"/>
   <mergeCells count="2">
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A79:I79"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A85:I85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B19:C21 B23:C23 A19:A26 A24:C26 D19:E26 A18:E18 I18:I21 A2:I17 A27:E41 A74:I74 I23:I41 F18:H42 A42:A43 A43:C43 F43:I43 B50:B51 I61 I65:I68 F63:I64 D65:H65 A64:A65 I71:I73 I44:I51">
-    <cfRule type="expression" dxfId="148" priority="366">
+  <conditionalFormatting sqref="B19:C21 B23:C23 A19:A26 A24:C26 A18:E18 I18:I21 A80:I80 I23:I41 A42:A44 B52:B53 I65 D70 A69:A70 I77:I79 I45:I47 A43:C44 F43:I44 I49:I53 I72:I74 A2:I17 F18:H42 D19:E26 A27:E35 A36:D41 F68:I70 E36:E74">
+    <cfRule type="expression" dxfId="192" priority="433">
       <formula>$C2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="367">
+    <cfRule type="expression" dxfId="191" priority="434">
       <formula>$C2=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="368">
+    <cfRule type="expression" dxfId="190" priority="435">
       <formula>$C2=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I41 I2:I21 I43:I51 I61 I71:I74 I63:I69">
-    <cfRule type="cellIs" dxfId="145" priority="349" operator="equal">
+  <conditionalFormatting sqref="I23:I41 I2:I21 I43:I47 I65 I77:I80 I68:I70 I49:I53 I72:I75">
+    <cfRule type="cellIs" dxfId="189" priority="416" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C21 C74 C23:C41 C43">
-    <cfRule type="dataBar" priority="493">
+  <conditionalFormatting sqref="C2:C21 C80 C23:C41 C43:C44">
+    <cfRule type="dataBar" priority="560">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5805,14 +6333,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74 A2:A43">
-    <cfRule type="duplicateValues" dxfId="144" priority="495"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G43 G74">
-    <cfRule type="cellIs" dxfId="143" priority="346" operator="equal">
+  <conditionalFormatting sqref="A80 A2:A44">
+    <cfRule type="duplicateValues" dxfId="188" priority="562"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G44 G80">
+    <cfRule type="cellIs" dxfId="187" priority="413" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="347">
+    <cfRule type="dataBar" priority="414">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5826,18 +6354,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="142" priority="341">
+    <cfRule type="expression" dxfId="186" priority="408">
       <formula>$C22=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="342">
+    <cfRule type="expression" dxfId="185" priority="409">
       <formula>$C22=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="343">
+    <cfRule type="expression" dxfId="184" priority="410">
       <formula>$C22=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="dataBar" priority="344">
+    <cfRule type="dataBar" priority="411">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5850,24 +6378,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:E42 I42 D43:E43">
-    <cfRule type="expression" dxfId="139" priority="334">
+  <conditionalFormatting sqref="B42:D42 I42 D43:D44">
+    <cfRule type="expression" dxfId="183" priority="401">
       <formula>$C42=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="335">
+    <cfRule type="expression" dxfId="182" priority="402">
       <formula>$C42=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="336">
+    <cfRule type="expression" dxfId="181" priority="403">
       <formula>$C42=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="136" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="400" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="dataBar" priority="337">
+    <cfRule type="dataBar" priority="404">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5880,19 +6408,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E44 B46:C46 F44:H46 A45:A46">
-    <cfRule type="expression" dxfId="135" priority="326">
-      <formula>$C44=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="327">
-      <formula>$C44=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="328">
-      <formula>$C44=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44 C46">
-    <cfRule type="dataBar" priority="329">
+  <conditionalFormatting sqref="A45:D45 B47:C47 F45:H47 A46:A48">
+    <cfRule type="expression" dxfId="179" priority="393">
+      <formula>$C45=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="394">
+      <formula>$C45=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="395">
+      <formula>$C45=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45 C47">
+    <cfRule type="dataBar" priority="396">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5905,14 +6433,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:A46">
-    <cfRule type="duplicateValues" dxfId="132" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G46">
-    <cfRule type="cellIs" dxfId="131" priority="324" operator="equal">
+  <conditionalFormatting sqref="A45:A48">
+    <cfRule type="duplicateValues" dxfId="176" priority="397"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:G47">
+    <cfRule type="cellIs" dxfId="175" priority="391" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="325">
+    <cfRule type="dataBar" priority="392">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5925,19 +6453,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:E45 D46:E46">
-    <cfRule type="expression" dxfId="130" priority="320">
-      <formula>$C45=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="321">
-      <formula>$C45=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="322">
-      <formula>$C45=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="dataBar" priority="323">
+  <conditionalFormatting sqref="B46:D46 D47">
+    <cfRule type="expression" dxfId="174" priority="387">
+      <formula>$C46=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="388">
+      <formula>$C46=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="389">
+      <formula>$C46=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="dataBar" priority="390">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5950,19 +6478,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:E47 B49:C49 A48:A51 C50:C51 F47:H51">
-    <cfRule type="expression" dxfId="127" priority="315">
-      <formula>$C47=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="316">
-      <formula>$C47=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="317">
-      <formula>$C47=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C51 C47">
-    <cfRule type="dataBar" priority="318">
+  <conditionalFormatting sqref="A49:D49 B51:C51 C52:C53 F49:H53 A50:A54">
+    <cfRule type="expression" dxfId="171" priority="382">
+      <formula>$C49=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="383">
+      <formula>$C49=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="384">
+      <formula>$C49=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C53 C49">
+    <cfRule type="dataBar" priority="385">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5975,14 +6503,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A51">
-    <cfRule type="duplicateValues" dxfId="124" priority="319"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47:G51">
-    <cfRule type="cellIs" dxfId="123" priority="313" operator="equal">
+  <conditionalFormatting sqref="A49:A54">
+    <cfRule type="duplicateValues" dxfId="168" priority="386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G53">
+    <cfRule type="cellIs" dxfId="167" priority="380" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="314">
+    <cfRule type="dataBar" priority="381">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5995,19 +6523,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:E48 D49:E51">
-    <cfRule type="expression" dxfId="122" priority="309">
-      <formula>$C48=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="310">
-      <formula>$C48=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="311">
-      <formula>$C48=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="dataBar" priority="312">
+  <conditionalFormatting sqref="B50:D50 D51:D53">
+    <cfRule type="expression" dxfId="166" priority="376">
+      <formula>$C50=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="377">
+      <formula>$C50=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="378">
+      <formula>$C50=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="dataBar" priority="379">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6020,30 +6548,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B73">
-    <cfRule type="expression" dxfId="119" priority="306">
-      <formula>$C71=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="307">
-      <formula>$C71=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="308">
-      <formula>$C71=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A73 C71:C73 F71:H73">
-    <cfRule type="expression" dxfId="116" priority="301">
-      <formula>$C71=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="302">
-      <formula>$C71=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="303">
-      <formula>$C71=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C73">
-    <cfRule type="dataBar" priority="304">
+  <conditionalFormatting sqref="B77:B79">
+    <cfRule type="expression" dxfId="163" priority="373">
+      <formula>$C77=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="374">
+      <formula>$C77=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="375">
+      <formula>$C77=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A79 C77:C79 F77:H79">
+    <cfRule type="expression" dxfId="160" priority="368">
+      <formula>$C77=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="369">
+      <formula>$C77=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="370">
+      <formula>$C77=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:C79">
+    <cfRule type="dataBar" priority="371">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6056,14 +6584,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A73">
-    <cfRule type="duplicateValues" dxfId="113" priority="305"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71:G73">
-    <cfRule type="cellIs" dxfId="112" priority="299" operator="equal">
+  <conditionalFormatting sqref="A77:A79">
+    <cfRule type="duplicateValues" dxfId="157" priority="372"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77:G79">
+    <cfRule type="cellIs" dxfId="156" priority="366" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="300">
+    <cfRule type="dataBar" priority="367">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6076,73 +6604,73 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:E73">
-    <cfRule type="expression" dxfId="111" priority="295">
-      <formula>$C71=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="296">
-      <formula>$C71=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="297">
-      <formula>$C71=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:I60">
-    <cfRule type="expression" dxfId="108" priority="292">
+  <conditionalFormatting sqref="D77:E79">
+    <cfRule type="expression" dxfId="155" priority="362">
+      <formula>$C77=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="363">
+      <formula>$C77=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="364">
+      <formula>$C77=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:I64">
+    <cfRule type="expression" dxfId="152" priority="359">
+      <formula>$C62=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="360">
+      <formula>$C62=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="361">
+      <formula>$C62=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:I64">
+    <cfRule type="cellIs" dxfId="149" priority="358" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I58">
+    <cfRule type="expression" dxfId="148" priority="342">
+      <formula>$C55=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="343">
+      <formula>$C55=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="344">
+      <formula>$C55=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I58">
+    <cfRule type="cellIs" dxfId="145" priority="341" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="144" priority="338">
       <formula>$C58=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="293">
+    <cfRule type="expression" dxfId="143" priority="339">
       <formula>$C58=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="294">
+    <cfRule type="expression" dxfId="142" priority="340">
       <formula>$C58=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:I60">
-    <cfRule type="cellIs" dxfId="105" priority="291" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I55">
-    <cfRule type="expression" dxfId="104" priority="275">
-      <formula>$C52=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="276">
-      <formula>$C52=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="277">
-      <formula>$C52=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I55">
-    <cfRule type="cellIs" dxfId="101" priority="274" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="100" priority="271">
+  <conditionalFormatting sqref="A55:D55 B57:C57 C58 F55:H58 A56:A61">
+    <cfRule type="expression" dxfId="141" priority="333">
       <formula>$C55=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="272">
+    <cfRule type="expression" dxfId="140" priority="334">
       <formula>$C55=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="273">
+    <cfRule type="expression" dxfId="139" priority="335">
       <formula>$C55=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:E52 B54:C54 C55 F52:H55 A53:A57">
-    <cfRule type="expression" dxfId="97" priority="266">
-      <formula>$C52=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="267">
-      <formula>$C52=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="268">
-      <formula>$C52=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C55 C52">
-    <cfRule type="dataBar" priority="269">
+  <conditionalFormatting sqref="C57:C58 C55">
+    <cfRule type="dataBar" priority="336">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6155,14 +6683,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A57">
-    <cfRule type="duplicateValues" dxfId="94" priority="270"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G55">
-    <cfRule type="cellIs" dxfId="93" priority="264" operator="equal">
+  <conditionalFormatting sqref="A55:A61">
+    <cfRule type="duplicateValues" dxfId="138" priority="337"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G58">
+    <cfRule type="cellIs" dxfId="137" priority="331" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="265">
+    <cfRule type="dataBar" priority="332">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6175,19 +6703,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:E53 D54:E55">
-    <cfRule type="expression" dxfId="92" priority="260">
-      <formula>$C53=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="261">
-      <formula>$C53=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="262">
-      <formula>$C53=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="dataBar" priority="263">
+  <conditionalFormatting sqref="B56:D56 D57:D58">
+    <cfRule type="expression" dxfId="136" priority="327">
+      <formula>$C56=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="328">
+      <formula>$C56=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="329">
+      <formula>$C56=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="dataBar" priority="330">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6200,46 +6728,46 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="89" priority="257">
-      <formula>$C56=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="258">
-      <formula>$C56=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="259">
-      <formula>$C56=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="86" priority="256" operator="equal">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="133" priority="324">
+      <formula>$C59=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="325">
+      <formula>$C59=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="326">
+      <formula>$C59=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="cellIs" dxfId="130" priority="323" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="85" priority="253">
-      <formula>$C56=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="254">
-      <formula>$C56=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="255">
-      <formula>$C56=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56 F56:H56">
-    <cfRule type="expression" dxfId="82" priority="248">
-      <formula>$C56=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="249">
-      <formula>$C56=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="250">
-      <formula>$C56=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="dataBar" priority="251">
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="129" priority="320">
+      <formula>$C59=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="321">
+      <formula>$C59=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="322">
+      <formula>$C59=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59 F59:H59">
+    <cfRule type="expression" dxfId="126" priority="315">
+      <formula>$C59=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="316">
+      <formula>$C59=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="317">
+      <formula>$C59=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="dataBar" priority="318">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6252,11 +6780,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="79" priority="246" operator="equal">
+  <conditionalFormatting sqref="G59">
+    <cfRule type="cellIs" dxfId="123" priority="313" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="247">
+    <cfRule type="dataBar" priority="314">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6269,57 +6797,57 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:E56">
-    <cfRule type="expression" dxfId="78" priority="243">
-      <formula>$C56=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="244">
-      <formula>$C56=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="245">
-      <formula>$C56=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="75" priority="240">
-      <formula>$C57=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="241">
-      <formula>$C57=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="242">
-      <formula>$C57=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="72" priority="239" operator="equal">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="122" priority="310">
+      <formula>$C59=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="311">
+      <formula>$C59=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="312">
+      <formula>$C59=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="expression" dxfId="119" priority="307">
+      <formula>$C60=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="308">
+      <formula>$C60=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="309">
+      <formula>$C60=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="cellIs" dxfId="116" priority="306" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="71" priority="236">
-      <formula>$C57=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="237">
-      <formula>$C57=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="238">
-      <formula>$C57=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57 F57:H57">
-    <cfRule type="expression" dxfId="68" priority="231">
-      <formula>$C57=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="232">
-      <formula>$C57=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="233">
-      <formula>$C57=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="dataBar" priority="234">
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="115" priority="303">
+      <formula>$C60=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="304">
+      <formula>$C60=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="305">
+      <formula>$C60=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60 F60:H60">
+    <cfRule type="expression" dxfId="112" priority="298">
+      <formula>$C60=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="299">
+      <formula>$C60=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="300">
+      <formula>$C60=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="dataBar" priority="301">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6332,11 +6860,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="65" priority="229" operator="equal">
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="109" priority="296" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="230">
+    <cfRule type="dataBar" priority="297">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6349,41 +6877,41 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:E57">
-    <cfRule type="expression" dxfId="64" priority="226">
-      <formula>$C57=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="227">
-      <formula>$C57=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="228">
-      <formula>$C57=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="61" priority="223">
-      <formula>$C61=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="224">
-      <formula>$C61=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="225">
-      <formula>$C61=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 B60:C60 C61 F58:H61 A59:A61">
-    <cfRule type="expression" dxfId="58" priority="218">
-      <formula>$C58=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="219">
-      <formula>$C58=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="220">
-      <formula>$C58=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C61 C58">
-    <cfRule type="dataBar" priority="221">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="108" priority="293">
+      <formula>$C60=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="294">
+      <formula>$C60=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="295">
+      <formula>$C60=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="105" priority="290">
+      <formula>$C65=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="291">
+      <formula>$C65=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="292">
+      <formula>$C65=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:D62 B64:C64 C65 F62:H65 A63:A65">
+    <cfRule type="expression" dxfId="102" priority="285">
+      <formula>$C62=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="286">
+      <formula>$C62=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="287">
+      <formula>$C62=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:C65 C62">
+    <cfRule type="dataBar" priority="288">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6396,14 +6924,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A61">
-    <cfRule type="duplicateValues" dxfId="55" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:G61">
-    <cfRule type="cellIs" dxfId="54" priority="216" operator="equal">
+  <conditionalFormatting sqref="A62:A65">
+    <cfRule type="duplicateValues" dxfId="99" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:G65">
+    <cfRule type="cellIs" dxfId="98" priority="283" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="217">
+    <cfRule type="dataBar" priority="284">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6416,19 +6944,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:E59 D60:E61">
-    <cfRule type="expression" dxfId="53" priority="212">
-      <formula>$C59=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="213">
-      <formula>$C59=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="214">
-      <formula>$C59=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="dataBar" priority="215">
+  <conditionalFormatting sqref="B63:D63 D64:D65">
+    <cfRule type="expression" dxfId="97" priority="279">
+      <formula>$C63=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="280">
+      <formula>$C63=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="281">
+      <formula>$C63=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="dataBar" priority="282">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6441,46 +6969,46 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="50" priority="185">
-      <formula>$C62=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="186">
-      <formula>$C62=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="187">
-      <formula>$C62=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="47" priority="184" operator="equal">
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="94" priority="252">
+      <formula>$C66=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="253">
+      <formula>$C66=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="254">
+      <formula>$C66=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="91" priority="251" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="46" priority="181">
-      <formula>$C62=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="182">
-      <formula>$C62=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="183">
-      <formula>$C62=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62 F62:H62 A62">
-    <cfRule type="expression" dxfId="43" priority="176">
-      <formula>$C62=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="177">
-      <formula>$C62=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="178">
-      <formula>$C62=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="dataBar" priority="179">
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="90" priority="248">
+      <formula>$C66=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="249">
+      <formula>$C66=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="250">
+      <formula>$C66=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66 F66:H66 A66:A67">
+    <cfRule type="expression" dxfId="87" priority="243">
+      <formula>$C66=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="244">
+      <formula>$C66=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="245">
+      <formula>$C66=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6493,14 +7021,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="40" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="39" priority="174" operator="equal">
+  <conditionalFormatting sqref="A66:A67">
+    <cfRule type="duplicateValues" dxfId="84" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="83" priority="241" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6513,52 +7041,52 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:E62">
-    <cfRule type="expression" dxfId="38" priority="171">
-      <formula>$C62=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="172">
-      <formula>$C62=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="173">
-      <formula>$C62=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="35" priority="168">
-      <formula>$C65=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="169">
-      <formula>$C65=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="170">
-      <formula>$C65=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:E63 C65">
-    <cfRule type="expression" dxfId="32" priority="163">
-      <formula>$C63=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="164">
-      <formula>$C63=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="165">
-      <formula>$C63=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64:E64">
-    <cfRule type="expression" dxfId="29" priority="157">
-      <formula>$C64=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="158">
-      <formula>$C64=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="159">
-      <formula>$C64=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="dataBar" priority="160">
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="82" priority="238">
+      <formula>$C66=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="239">
+      <formula>$C66=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="240">
+      <formula>$C66=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="79" priority="235">
+      <formula>$C70=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="236">
+      <formula>$C70=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="237">
+      <formula>$C70=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:D68 C70">
+    <cfRule type="expression" dxfId="76" priority="230">
+      <formula>$C68=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="231">
+      <formula>$C68=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="232">
+      <formula>$C68=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:D69">
+    <cfRule type="expression" dxfId="73" priority="224">
+      <formula>$C69=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="225">
+      <formula>$C69=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="226">
+      <formula>$C69=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6571,30 +7099,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:H67 D68:H68 A67:A68">
-    <cfRule type="expression" dxfId="26" priority="137">
-      <formula>$C66=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="138">
-      <formula>$C66=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="139">
-      <formula>$C66=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:E67">
-    <cfRule type="expression" dxfId="23" priority="127">
-      <formula>$C67=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="128">
-      <formula>$C67=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="129">
-      <formula>$C67=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63 C65">
-    <cfRule type="dataBar" priority="527">
+  <conditionalFormatting sqref="D74 A73:A74 F72:H74">
+    <cfRule type="expression" dxfId="70" priority="204">
+      <formula>$C72=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="205">
+      <formula>$C72=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="206">
+      <formula>$C72=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:D73">
+    <cfRule type="expression" dxfId="67" priority="194">
+      <formula>$C73=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="195">
+      <formula>$C73=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="196">
+      <formula>$C73=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68 C70">
+    <cfRule type="dataBar" priority="594">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6607,14 +7135,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A65">
-    <cfRule type="duplicateValues" dxfId="20" priority="529"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63:G65">
-    <cfRule type="cellIs" dxfId="19" priority="531" operator="equal">
+  <conditionalFormatting sqref="A68:A70">
+    <cfRule type="duplicateValues" dxfId="64" priority="596"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G70">
+    <cfRule type="cellIs" dxfId="63" priority="598" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="532">
+    <cfRule type="dataBar" priority="599">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6627,30 +7155,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="18" priority="134">
-      <formula>$C68=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="135">
-      <formula>$C68=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="136">
-      <formula>$C68=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:E66 C68 A67:A68">
-    <cfRule type="expression" dxfId="15" priority="131">
-      <formula>$C66=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="132">
-      <formula>$C66=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="133">
-      <formula>$C66=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="dataBar" priority="130">
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="62" priority="201">
+      <formula>$C74=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="202">
+      <formula>$C74=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="203">
+      <formula>$C74=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:D72 C74 A73:A74">
+    <cfRule type="expression" dxfId="59" priority="198">
+      <formula>$C72=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="199">
+      <formula>$C72=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="200">
+      <formula>$C72=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6663,8 +7191,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68 C66">
-    <cfRule type="dataBar" priority="140">
+  <conditionalFormatting sqref="C72 C74">
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6677,14 +7205,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A68">
-    <cfRule type="duplicateValues" dxfId="12" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66:G68">
-    <cfRule type="cellIs" dxfId="11" priority="142" operator="equal">
+  <conditionalFormatting sqref="A72:A74">
+    <cfRule type="duplicateValues" dxfId="56" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72:G74">
+    <cfRule type="cellIs" dxfId="55" priority="209" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="143">
+    <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6697,24 +7225,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:I70">
-    <cfRule type="expression" dxfId="10" priority="122">
-      <formula>$C70=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="123">
-      <formula>$C70=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="124">
-      <formula>$C70=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="7" priority="121" operator="equal">
+  <conditionalFormatting sqref="A76:I76">
+    <cfRule type="expression" dxfId="54" priority="189">
+      <formula>$C76=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="190">
+      <formula>$C76=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="191">
+      <formula>$C76=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="cellIs" dxfId="51" priority="188" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="dataBar" priority="125">
+  <conditionalFormatting sqref="C76">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6727,14 +7255,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="6" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" dxfId="5" priority="119" operator="equal">
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="50" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="cellIs" dxfId="49" priority="186" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6747,19 +7275,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:I69">
-    <cfRule type="expression" dxfId="4" priority="101">
-      <formula>$C69=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
-      <formula>$C69=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="103">
-      <formula>$C69=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="dataBar" priority="104">
+  <conditionalFormatting sqref="A75:I75">
+    <cfRule type="expression" dxfId="48" priority="168">
+      <formula>$C75=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="169">
+      <formula>$C75=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="170">
+      <formula>$C75=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6772,14 +7300,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="1" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="equal">
+  <conditionalFormatting sqref="A75">
+    <cfRule type="duplicateValues" dxfId="45" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
+    <cfRule type="cellIs" dxfId="44" priority="165" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6790,6 +7318,310 @@
           <x14:id>{B317FCCB-202B-46C9-9246-509F8F61E94A}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:C48 F48:I48">
+    <cfRule type="expression" dxfId="43" priority="63">
+      <formula>$C48=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="64">
+      <formula>$C48=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="65">
+      <formula>$C48=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="cellIs" dxfId="40" priority="62" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="dataBar" priority="66">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDA3049D-56C5-4B4D-A217-FC17ECCF6957}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D271FB0-0CF7-431C-8342-EE06CBE23F77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="38" priority="57">
+      <formula>$C48=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="58">
+      <formula>$C48=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="59">
+      <formula>$C48=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:C54 F54:I54">
+    <cfRule type="expression" dxfId="35" priority="49">
+      <formula>$C54=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="50">
+      <formula>$C54=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="51">
+      <formula>$C54=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="dataBar" priority="52">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE69EC3B-8530-43C8-A0E2-7EF3889BD79D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07DB3C1C-4B03-4E3C-974D-8AC57390B6C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="30" priority="43">
+      <formula>$C54=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="44">
+      <formula>$C54=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="45">
+      <formula>$C54=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:C61 F61:I61">
+    <cfRule type="expression" dxfId="27" priority="35">
+      <formula>$C61=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="36">
+      <formula>$C61=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="37">
+      <formula>$C61=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4BF3B2DA-10DF-42CC-93EE-F8C17AA699D9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE91085A-6A4F-4221-9044-221DF07A2C67}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="22" priority="29">
+      <formula>$C61=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="30">
+      <formula>$C61=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="31">
+      <formula>$C61=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:C67 F67:I67">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$C67=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$C67=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>$C67=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A25ADE40-7B19-4864-BDDB-AF3321319B02}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04F5F049-0468-4A00-B9F8-5AD5E38280A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C67=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>$C67=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>$C67=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C71=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$C71=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$C71=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:C71 F71:I71">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C71=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$C71=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$C71=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A8AA0B3-5D75-486D-86A8-E9B3C6E5384B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5A2AE80C-9E6D-40C9-A634-C925D6DF966A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$C71=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C71=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$C71=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6808,7 +7640,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C21 C74 C23:C41 C43</xm:sqref>
+          <xm:sqref>C2:C21 C80 C23:C41 C43:C44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}">
@@ -6821,7 +7653,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G43 G74</xm:sqref>
+          <xm:sqref>G2:G44 G80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3874E222-E94B-4593-8EBF-E975F744D5C9}">
@@ -6860,7 +7692,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C44 C46</xm:sqref>
+          <xm:sqref>C45 C47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A57311D0-5C79-4220-8023-B3BF624EFEAC}">
@@ -6873,7 +7705,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G44:G46</xm:sqref>
+          <xm:sqref>G45:G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F1A3ED6A-6F7F-4E3F-875B-20F76134C822}">
@@ -6886,7 +7718,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C45</xm:sqref>
+          <xm:sqref>C46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D28A6E2E-21B9-4AD2-B9D0-EE994395EC32}">
@@ -6899,7 +7731,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C49:C51 C47</xm:sqref>
+          <xm:sqref>C51:C53 C49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11669A1B-22CE-42FA-865C-12A405DBF48B}">
@@ -6912,7 +7744,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G47:G51</xm:sqref>
+          <xm:sqref>G49:G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4A43D305-1FBF-4CA3-8C6E-7D24B3D55900}">
@@ -6925,7 +7757,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C48</xm:sqref>
+          <xm:sqref>C50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E88AA7CC-3570-4251-8CC5-0AC0472E7BE9}">
@@ -6938,7 +7770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C71:C73</xm:sqref>
+          <xm:sqref>C77:C79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B2E4102A-1414-4C1F-8FB8-37DBAE342838}">
@@ -6951,7 +7783,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G71:G73</xm:sqref>
+          <xm:sqref>G77:G79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8EDA5F6B-BD2D-4E05-80B4-F0197338136E}">
@@ -6964,7 +7796,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C54:C55 C52</xm:sqref>
+          <xm:sqref>C57:C58 C55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BF1E43C-4E09-42FB-91FC-F775AC6F4454}">
@@ -6977,7 +7809,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G52:G55</xm:sqref>
+          <xm:sqref>G55:G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E7F4DC0C-A6D7-42AD-8675-F788604658E1}">
@@ -6990,7 +7822,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C53</xm:sqref>
+          <xm:sqref>C56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51B49CC2-7937-448A-8958-DAD143576ECC}">
@@ -7003,7 +7835,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C56</xm:sqref>
+          <xm:sqref>C59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E16D8454-E1C5-4DF3-96ED-73EABD3069E8}">
@@ -7016,7 +7848,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G56</xm:sqref>
+          <xm:sqref>G59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{786630B8-9D26-47E7-B594-96670DD47AFC}">
@@ -7029,7 +7861,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C57</xm:sqref>
+          <xm:sqref>C60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D32630DD-1D43-4E46-8399-0743565D46D7}">
@@ -7042,7 +7874,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G57</xm:sqref>
+          <xm:sqref>G60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94BAC566-1837-4696-B599-0A4887200D7C}">
@@ -7055,7 +7887,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C60:C61 C58</xm:sqref>
+          <xm:sqref>C64:C65 C62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59ACFE6B-0455-4D8F-9B65-CEB048650314}">
@@ -7068,7 +7900,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G58:G61</xm:sqref>
+          <xm:sqref>G62:G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E328B79-DD71-4B79-93B1-A03158AC5F80}">
@@ -7081,7 +7913,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C59</xm:sqref>
+          <xm:sqref>C63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7F852BA5-6A01-451C-AA11-4433ADAB21A7}">
@@ -7094,7 +7926,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C62</xm:sqref>
+          <xm:sqref>C66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2CC78E1-90DC-4AF9-A77C-7BE4050AF2F9}">
@@ -7107,7 +7939,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G62</xm:sqref>
+          <xm:sqref>G66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36ED2827-AA9C-40D1-849F-DF513F76383B}">
@@ -7120,7 +7952,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C64</xm:sqref>
+          <xm:sqref>C69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90747034-5F45-4DCB-BAC1-7373E7BA45E5}">
@@ -7133,7 +7965,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C63 C65</xm:sqref>
+          <xm:sqref>C68 C70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{83CD629F-6852-438C-BE70-68459E804CD3}">
@@ -7146,7 +7978,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G63:G65</xm:sqref>
+          <xm:sqref>G68:G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BBC8304A-2386-455C-A8C4-FFFDA8D6BF4B}">
@@ -7159,7 +7991,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C67</xm:sqref>
+          <xm:sqref>C73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FF93397-59BE-42EC-8341-B2224680BA5B}">
@@ -7172,7 +8004,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C68 C66</xm:sqref>
+          <xm:sqref>C72 C74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FDBDC25-58F3-4E71-9850-D3B9B5EB63A5}">
@@ -7185,7 +8017,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G66:G68</xm:sqref>
+          <xm:sqref>G72:G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75164519-BF8D-466D-92AA-D9C780C91517}">
@@ -7198,7 +8030,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C70</xm:sqref>
+          <xm:sqref>C76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{026D6916-53A7-468F-9E2E-D1E599A3ED77}">
@@ -7211,7 +8043,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G70</xm:sqref>
+          <xm:sqref>G76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC33AC7F-4A28-42DF-A318-F8FCCA682B94}">
@@ -7224,7 +8056,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C69</xm:sqref>
+          <xm:sqref>C75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B317FCCB-202B-46C9-9246-509F8F61E94A}">
@@ -7237,7 +8069,137 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G69</xm:sqref>
+          <xm:sqref>G75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FDA3049D-56C5-4B4D-A217-FC17ECCF6957}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D271FB0-0CF7-431C-8342-EE06CBE23F77}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE69EC3B-8530-43C8-A0E2-7EF3889BD79D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{07DB3C1C-4B03-4E3C-974D-8AC57390B6C8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4BF3B2DA-10DF-42CC-93EE-F8C17AA699D9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE91085A-6A4F-4221-9044-221DF07A2C67}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A25ADE40-7B19-4864-BDDB-AF3321319B02}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04F5F049-0468-4A00-B9F8-5AD5E38280A0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9A8AA0B3-5D75-486D-86A8-E9B3C6E5384B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5A2AE80C-9E6D-40C9-A634-C925D6DF966A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7247,37 +8209,37 @@
           <x14:formula1>
             <xm:f>도구!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D80</xm:sqref>
+          <xm:sqref>D86</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 반복 주기에 완료하려는 요구사항이면 TRUE를, 아니면 FALSE를 선택하세요.">
           <x14:formula1>
             <xm:f>도구!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I21 I23:I74</xm:sqref>
+          <xm:sqref>I2:I21 I23:I80</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="추정치(일)" prompt="기능 요구사항을 완료하는데 필요한 일량을 일(day) 단위로 선택하세요. -1과 0은 각각 삭제된 요구사항과 다른 요구사항으로 재정의돤 것을 의미합니다.">
           <x14:formula1>
             <xm:f>도구!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C74</xm:sqref>
+          <xm:sqref>C2:C80</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="개발 단계" prompt="현재 진행중인 단계를 의미합니다.">
           <x14:formula1>
             <xm:f>도구!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E74</xm:sqref>
+          <xm:sqref>E2:E80</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="우선순위" prompt="상, 중, 하로 선택하세요.">
           <x14:formula1>
             <xm:f>도구!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D74</xm:sqref>
+          <xm:sqref>D2:D80</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 주에 개발하려는 기능 요구사항을 TRUE로 선택하면 됩니다. 스크럼처럼 반복 주기를 2주로 하는 경우 2주간 반복 대상을 동일하게 유지하면 됩니다._x000a_">
           <x14:formula1>
             <xm:f>도구!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G74</xm:sqref>
+          <xm:sqref>G2:G80</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7293,7 +8255,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7312,13 +8274,13 @@
         <v>47</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7334,7 +8296,7 @@
       <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="33">
         <v>44222</v>
       </c>
     </row>
@@ -7342,19 +8304,35 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="10">
+        <v>133</v>
+      </c>
+      <c r="C3" s="17">
+        <v>60</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="33">
+        <v>44234</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="10">
+        <v>133</v>
+      </c>
+      <c r="C4" s="17">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10">
+        <v>31</v>
+      </c>
+      <c r="E4" s="33">
+        <v>44241</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
